--- a/APM files/135460914/135460914 IMPORT 3 OID creation.xlsx
+++ b/APM files/135460914/135460914 IMPORT 3 OID creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135460914/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345C9E4-72C7-0B45-95EA-AAE33CE83859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E5BE99-5B36-F84C-B783-77D69C8ABB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="769">
   <si>
     <t>Expedia ID</t>
   </si>
@@ -2340,6 +2340,9 @@
   </si>
   <si>
     <t>sales@travelio.com</t>
+  </si>
+  <si>
+    <t>PT Horizon Internusa Persada</t>
   </si>
 </sst>
 </file>
@@ -2361,18 +2364,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2387,11 +2384,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2719,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81CCFE-720E-40D7-A104-13F9DD318DB9}">
   <dimension ref="A1:R241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2835,8 +2831,12 @@
       <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="N2" t="s">
+        <v>768</v>
+      </c>
+      <c r="O2" t="s">
+        <v>768</v>
+      </c>
       <c r="P2" t="s">
         <v>14</v>
       </c>
@@ -2878,8 +2878,12 @@
       <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N3" t="s">
+        <v>768</v>
+      </c>
+      <c r="O3" t="s">
+        <v>768</v>
+      </c>
       <c r="P3" t="s">
         <v>14</v>
       </c>
@@ -2921,8 +2925,12 @@
       <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="N4" t="s">
+        <v>768</v>
+      </c>
+      <c r="O4" t="s">
+        <v>768</v>
+      </c>
       <c r="P4" t="s">
         <v>14</v>
       </c>
@@ -2964,8 +2972,12 @@
       <c r="M5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" t="s">
+        <v>768</v>
+      </c>
+      <c r="O5" t="s">
+        <v>768</v>
+      </c>
       <c r="P5" t="s">
         <v>14</v>
       </c>
@@ -3007,8 +3019,12 @@
       <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" t="s">
+        <v>768</v>
+      </c>
+      <c r="O6" t="s">
+        <v>768</v>
+      </c>
       <c r="P6" t="s">
         <v>14</v>
       </c>
@@ -3050,8 +3066,12 @@
       <c r="M7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" t="s">
+        <v>768</v>
+      </c>
+      <c r="O7" t="s">
+        <v>768</v>
+      </c>
       <c r="P7" t="s">
         <v>14</v>
       </c>
@@ -3093,8 +3113,12 @@
       <c r="M8" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" t="s">
+        <v>768</v>
+      </c>
+      <c r="O8" t="s">
+        <v>768</v>
+      </c>
       <c r="P8" t="s">
         <v>14</v>
       </c>
@@ -3136,8 +3160,12 @@
       <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" t="s">
+        <v>768</v>
+      </c>
+      <c r="O9" t="s">
+        <v>768</v>
+      </c>
       <c r="P9" t="s">
         <v>14</v>
       </c>
@@ -3179,8 +3207,12 @@
       <c r="M10" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" t="s">
+        <v>768</v>
+      </c>
+      <c r="O10" t="s">
+        <v>768</v>
+      </c>
       <c r="P10" t="s">
         <v>14</v>
       </c>
@@ -3222,8 +3254,12 @@
       <c r="M11" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" t="s">
+        <v>768</v>
+      </c>
+      <c r="O11" t="s">
+        <v>768</v>
+      </c>
       <c r="P11" t="s">
         <v>14</v>
       </c>
@@ -3265,8 +3301,12 @@
       <c r="M12" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" t="s">
+        <v>768</v>
+      </c>
+      <c r="O12" t="s">
+        <v>768</v>
+      </c>
       <c r="P12" t="s">
         <v>14</v>
       </c>
@@ -3308,8 +3348,12 @@
       <c r="M13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="N13" t="s">
+        <v>768</v>
+      </c>
+      <c r="O13" t="s">
+        <v>768</v>
+      </c>
       <c r="P13" t="s">
         <v>14</v>
       </c>
@@ -3351,8 +3395,12 @@
       <c r="M14" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="N14" t="s">
+        <v>768</v>
+      </c>
+      <c r="O14" t="s">
+        <v>768</v>
+      </c>
       <c r="P14" t="s">
         <v>14</v>
       </c>
@@ -3394,8 +3442,12 @@
       <c r="M15" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" t="s">
+        <v>768</v>
+      </c>
+      <c r="O15" t="s">
+        <v>768</v>
+      </c>
       <c r="P15" t="s">
         <v>14</v>
       </c>
@@ -3437,8 +3489,12 @@
       <c r="M16" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="N16" t="s">
+        <v>768</v>
+      </c>
+      <c r="O16" t="s">
+        <v>768</v>
+      </c>
       <c r="P16" t="s">
         <v>14</v>
       </c>
@@ -3480,8 +3536,12 @@
       <c r="M17" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="N17" t="s">
+        <v>768</v>
+      </c>
+      <c r="O17" t="s">
+        <v>768</v>
+      </c>
       <c r="P17" t="s">
         <v>14</v>
       </c>
@@ -3523,8 +3583,12 @@
       <c r="M18" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="N18" t="s">
+        <v>768</v>
+      </c>
+      <c r="O18" t="s">
+        <v>768</v>
+      </c>
       <c r="P18" t="s">
         <v>14</v>
       </c>
@@ -3566,8 +3630,12 @@
       <c r="M19" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="N19" t="s">
+        <v>768</v>
+      </c>
+      <c r="O19" t="s">
+        <v>768</v>
+      </c>
       <c r="P19" t="s">
         <v>14</v>
       </c>
@@ -3609,8 +3677,12 @@
       <c r="M20" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="N20" t="s">
+        <v>768</v>
+      </c>
+      <c r="O20" t="s">
+        <v>768</v>
+      </c>
       <c r="P20" t="s">
         <v>14</v>
       </c>
@@ -3652,8 +3724,12 @@
       <c r="M21" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="N21" t="s">
+        <v>768</v>
+      </c>
+      <c r="O21" t="s">
+        <v>768</v>
+      </c>
       <c r="P21" t="s">
         <v>14</v>
       </c>
@@ -3695,8 +3771,12 @@
       <c r="M22" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="N22" t="s">
+        <v>768</v>
+      </c>
+      <c r="O22" t="s">
+        <v>768</v>
+      </c>
       <c r="P22" t="s">
         <v>14</v>
       </c>
@@ -3738,8 +3818,12 @@
       <c r="M23" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="N23" t="s">
+        <v>768</v>
+      </c>
+      <c r="O23" t="s">
+        <v>768</v>
+      </c>
       <c r="P23" t="s">
         <v>14</v>
       </c>
@@ -3781,8 +3865,12 @@
       <c r="M24" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="N24" t="s">
+        <v>768</v>
+      </c>
+      <c r="O24" t="s">
+        <v>768</v>
+      </c>
       <c r="P24" t="s">
         <v>14</v>
       </c>
@@ -3824,8 +3912,12 @@
       <c r="M25" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="N25" t="s">
+        <v>768</v>
+      </c>
+      <c r="O25" t="s">
+        <v>768</v>
+      </c>
       <c r="P25" t="s">
         <v>14</v>
       </c>
@@ -3867,8 +3959,12 @@
       <c r="M26" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="N26" t="s">
+        <v>768</v>
+      </c>
+      <c r="O26" t="s">
+        <v>768</v>
+      </c>
       <c r="P26" t="s">
         <v>14</v>
       </c>
@@ -3910,8 +4006,12 @@
       <c r="M27" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="N27" t="s">
+        <v>768</v>
+      </c>
+      <c r="O27" t="s">
+        <v>768</v>
+      </c>
       <c r="P27" t="s">
         <v>14</v>
       </c>
@@ -3953,8 +4053,12 @@
       <c r="M28" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="N28" t="s">
+        <v>768</v>
+      </c>
+      <c r="O28" t="s">
+        <v>768</v>
+      </c>
       <c r="P28" t="s">
         <v>14</v>
       </c>
@@ -3996,8 +4100,12 @@
       <c r="M29" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="N29" t="s">
+        <v>768</v>
+      </c>
+      <c r="O29" t="s">
+        <v>768</v>
+      </c>
       <c r="P29" t="s">
         <v>14</v>
       </c>
@@ -4039,8 +4147,12 @@
       <c r="M30" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="N30" t="s">
+        <v>768</v>
+      </c>
+      <c r="O30" t="s">
+        <v>768</v>
+      </c>
       <c r="P30" t="s">
         <v>14</v>
       </c>
@@ -4082,8 +4194,12 @@
       <c r="M31" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="N31" t="s">
+        <v>768</v>
+      </c>
+      <c r="O31" t="s">
+        <v>768</v>
+      </c>
       <c r="P31" t="s">
         <v>14</v>
       </c>
@@ -4125,8 +4241,12 @@
       <c r="M32" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="N32" t="s">
+        <v>768</v>
+      </c>
+      <c r="O32" t="s">
+        <v>768</v>
+      </c>
       <c r="P32" t="s">
         <v>14</v>
       </c>
@@ -4168,8 +4288,12 @@
       <c r="M33" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="N33" t="s">
+        <v>768</v>
+      </c>
+      <c r="O33" t="s">
+        <v>768</v>
+      </c>
       <c r="P33" t="s">
         <v>14</v>
       </c>
@@ -4211,8 +4335,12 @@
       <c r="M34" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="N34" t="s">
+        <v>768</v>
+      </c>
+      <c r="O34" t="s">
+        <v>768</v>
+      </c>
       <c r="P34" t="s">
         <v>14</v>
       </c>
@@ -4254,8 +4382,12 @@
       <c r="M35" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="N35" t="s">
+        <v>768</v>
+      </c>
+      <c r="O35" t="s">
+        <v>768</v>
+      </c>
       <c r="P35" t="s">
         <v>14</v>
       </c>
@@ -4297,8 +4429,12 @@
       <c r="M36" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="N36" t="s">
+        <v>768</v>
+      </c>
+      <c r="O36" t="s">
+        <v>768</v>
+      </c>
       <c r="P36" t="s">
         <v>14</v>
       </c>
@@ -4340,8 +4476,12 @@
       <c r="M37" t="s">
         <v>21</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="N37" t="s">
+        <v>768</v>
+      </c>
+      <c r="O37" t="s">
+        <v>768</v>
+      </c>
       <c r="P37" t="s">
         <v>14</v>
       </c>
@@ -4383,8 +4523,12 @@
       <c r="M38" t="s">
         <v>21</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="N38" t="s">
+        <v>768</v>
+      </c>
+      <c r="O38" t="s">
+        <v>768</v>
+      </c>
       <c r="P38" t="s">
         <v>14</v>
       </c>
@@ -4426,8 +4570,12 @@
       <c r="M39" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="N39" t="s">
+        <v>768</v>
+      </c>
+      <c r="O39" t="s">
+        <v>768</v>
+      </c>
       <c r="P39" t="s">
         <v>14</v>
       </c>
@@ -4469,8 +4617,12 @@
       <c r="M40" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="N40" t="s">
+        <v>768</v>
+      </c>
+      <c r="O40" t="s">
+        <v>768</v>
+      </c>
       <c r="P40" t="s">
         <v>14</v>
       </c>
@@ -4512,8 +4664,12 @@
       <c r="M41" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="N41" t="s">
+        <v>768</v>
+      </c>
+      <c r="O41" t="s">
+        <v>768</v>
+      </c>
       <c r="P41" t="s">
         <v>14</v>
       </c>
@@ -4555,8 +4711,12 @@
       <c r="M42" t="s">
         <v>21</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="N42" t="s">
+        <v>768</v>
+      </c>
+      <c r="O42" t="s">
+        <v>768</v>
+      </c>
       <c r="P42" t="s">
         <v>14</v>
       </c>
@@ -4598,8 +4758,12 @@
       <c r="M43" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="N43" t="s">
+        <v>768</v>
+      </c>
+      <c r="O43" t="s">
+        <v>768</v>
+      </c>
       <c r="P43" t="s">
         <v>14</v>
       </c>
@@ -4641,8 +4805,12 @@
       <c r="M44" t="s">
         <v>21</v>
       </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="N44" t="s">
+        <v>768</v>
+      </c>
+      <c r="O44" t="s">
+        <v>768</v>
+      </c>
       <c r="P44" t="s">
         <v>14</v>
       </c>
@@ -4684,8 +4852,12 @@
       <c r="M45" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="N45" t="s">
+        <v>768</v>
+      </c>
+      <c r="O45" t="s">
+        <v>768</v>
+      </c>
       <c r="P45" t="s">
         <v>14</v>
       </c>
@@ -4727,8 +4899,12 @@
       <c r="M46" t="s">
         <v>21</v>
       </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="N46" t="s">
+        <v>768</v>
+      </c>
+      <c r="O46" t="s">
+        <v>768</v>
+      </c>
       <c r="P46" t="s">
         <v>14</v>
       </c>
@@ -4770,8 +4946,12 @@
       <c r="M47" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="N47" t="s">
+        <v>768</v>
+      </c>
+      <c r="O47" t="s">
+        <v>768</v>
+      </c>
       <c r="P47" t="s">
         <v>14</v>
       </c>
@@ -4813,8 +4993,12 @@
       <c r="M48" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="N48" t="s">
+        <v>768</v>
+      </c>
+      <c r="O48" t="s">
+        <v>768</v>
+      </c>
       <c r="P48" t="s">
         <v>14</v>
       </c>
@@ -4856,8 +5040,12 @@
       <c r="M49" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="N49" t="s">
+        <v>768</v>
+      </c>
+      <c r="O49" t="s">
+        <v>768</v>
+      </c>
       <c r="P49" t="s">
         <v>14</v>
       </c>
@@ -4899,8 +5087,12 @@
       <c r="M50" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="N50" t="s">
+        <v>768</v>
+      </c>
+      <c r="O50" t="s">
+        <v>768</v>
+      </c>
       <c r="P50" t="s">
         <v>14</v>
       </c>
@@ -4942,8 +5134,12 @@
       <c r="M51" t="s">
         <v>21</v>
       </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="N51" t="s">
+        <v>768</v>
+      </c>
+      <c r="O51" t="s">
+        <v>768</v>
+      </c>
       <c r="P51" t="s">
         <v>14</v>
       </c>
@@ -4985,8 +5181,12 @@
       <c r="M52" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="N52" t="s">
+        <v>768</v>
+      </c>
+      <c r="O52" t="s">
+        <v>768</v>
+      </c>
       <c r="P52" t="s">
         <v>14</v>
       </c>
@@ -5028,8 +5228,12 @@
       <c r="M53" t="s">
         <v>21</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="N53" t="s">
+        <v>768</v>
+      </c>
+      <c r="O53" t="s">
+        <v>768</v>
+      </c>
       <c r="P53" t="s">
         <v>14</v>
       </c>
@@ -5071,8 +5275,12 @@
       <c r="M54" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="N54" t="s">
+        <v>768</v>
+      </c>
+      <c r="O54" t="s">
+        <v>768</v>
+      </c>
       <c r="P54" t="s">
         <v>14</v>
       </c>
@@ -5114,8 +5322,12 @@
       <c r="M55" t="s">
         <v>21</v>
       </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="N55" t="s">
+        <v>768</v>
+      </c>
+      <c r="O55" t="s">
+        <v>768</v>
+      </c>
       <c r="P55" t="s">
         <v>14</v>
       </c>
@@ -5157,8 +5369,12 @@
       <c r="M56" t="s">
         <v>21</v>
       </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="N56" t="s">
+        <v>768</v>
+      </c>
+      <c r="O56" t="s">
+        <v>768</v>
+      </c>
       <c r="P56" t="s">
         <v>14</v>
       </c>
@@ -5200,8 +5416,12 @@
       <c r="M57" t="s">
         <v>21</v>
       </c>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="N57" t="s">
+        <v>768</v>
+      </c>
+      <c r="O57" t="s">
+        <v>768</v>
+      </c>
       <c r="P57" t="s">
         <v>14</v>
       </c>
@@ -5243,8 +5463,12 @@
       <c r="M58" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="N58" t="s">
+        <v>768</v>
+      </c>
+      <c r="O58" t="s">
+        <v>768</v>
+      </c>
       <c r="P58" t="s">
         <v>14</v>
       </c>
@@ -5286,8 +5510,12 @@
       <c r="M59" t="s">
         <v>21</v>
       </c>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
+      <c r="N59" t="s">
+        <v>768</v>
+      </c>
+      <c r="O59" t="s">
+        <v>768</v>
+      </c>
       <c r="P59" t="s">
         <v>14</v>
       </c>
@@ -5329,8 +5557,12 @@
       <c r="M60" t="s">
         <v>21</v>
       </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
+      <c r="N60" t="s">
+        <v>768</v>
+      </c>
+      <c r="O60" t="s">
+        <v>768</v>
+      </c>
       <c r="P60" t="s">
         <v>14</v>
       </c>
@@ -5372,8 +5604,12 @@
       <c r="M61" t="s">
         <v>21</v>
       </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
+      <c r="N61" t="s">
+        <v>768</v>
+      </c>
+      <c r="O61" t="s">
+        <v>768</v>
+      </c>
       <c r="P61" t="s">
         <v>14</v>
       </c>
@@ -5415,8 +5651,12 @@
       <c r="M62" t="s">
         <v>21</v>
       </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
+      <c r="N62" t="s">
+        <v>768</v>
+      </c>
+      <c r="O62" t="s">
+        <v>768</v>
+      </c>
       <c r="P62" t="s">
         <v>14</v>
       </c>
@@ -5458,8 +5698,12 @@
       <c r="M63" t="s">
         <v>21</v>
       </c>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
+      <c r="N63" t="s">
+        <v>768</v>
+      </c>
+      <c r="O63" t="s">
+        <v>768</v>
+      </c>
       <c r="P63" t="s">
         <v>14</v>
       </c>
@@ -5501,8 +5745,12 @@
       <c r="M64" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
+      <c r="N64" t="s">
+        <v>768</v>
+      </c>
+      <c r="O64" t="s">
+        <v>768</v>
+      </c>
       <c r="P64" t="s">
         <v>14</v>
       </c>
@@ -5544,8 +5792,12 @@
       <c r="M65" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
+      <c r="N65" t="s">
+        <v>768</v>
+      </c>
+      <c r="O65" t="s">
+        <v>768</v>
+      </c>
       <c r="P65" t="s">
         <v>14</v>
       </c>
@@ -5587,8 +5839,12 @@
       <c r="M66" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
+      <c r="N66" t="s">
+        <v>768</v>
+      </c>
+      <c r="O66" t="s">
+        <v>768</v>
+      </c>
       <c r="P66" t="s">
         <v>14</v>
       </c>
@@ -5630,8 +5886,12 @@
       <c r="M67" t="s">
         <v>21</v>
       </c>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
+      <c r="N67" t="s">
+        <v>768</v>
+      </c>
+      <c r="O67" t="s">
+        <v>768</v>
+      </c>
       <c r="P67" t="s">
         <v>14</v>
       </c>
@@ -5673,8 +5933,12 @@
       <c r="M68" t="s">
         <v>21</v>
       </c>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
+      <c r="N68" t="s">
+        <v>768</v>
+      </c>
+      <c r="O68" t="s">
+        <v>768</v>
+      </c>
       <c r="P68" t="s">
         <v>14</v>
       </c>
@@ -5716,8 +5980,12 @@
       <c r="M69" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
+      <c r="N69" t="s">
+        <v>768</v>
+      </c>
+      <c r="O69" t="s">
+        <v>768</v>
+      </c>
       <c r="P69" t="s">
         <v>14</v>
       </c>
@@ -5759,8 +6027,12 @@
       <c r="M70" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="N70" t="s">
+        <v>768</v>
+      </c>
+      <c r="O70" t="s">
+        <v>768</v>
+      </c>
       <c r="P70" t="s">
         <v>14</v>
       </c>
@@ -5802,8 +6074,12 @@
       <c r="M71" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
+      <c r="N71" t="s">
+        <v>768</v>
+      </c>
+      <c r="O71" t="s">
+        <v>768</v>
+      </c>
       <c r="P71" t="s">
         <v>14</v>
       </c>
@@ -5845,8 +6121,12 @@
       <c r="M72" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
+      <c r="N72" t="s">
+        <v>768</v>
+      </c>
+      <c r="O72" t="s">
+        <v>768</v>
+      </c>
       <c r="P72" t="s">
         <v>14</v>
       </c>
@@ -5888,8 +6168,12 @@
       <c r="M73" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
+      <c r="N73" t="s">
+        <v>768</v>
+      </c>
+      <c r="O73" t="s">
+        <v>768</v>
+      </c>
       <c r="P73" t="s">
         <v>14</v>
       </c>
@@ -5931,8 +6215,12 @@
       <c r="M74" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
+      <c r="N74" t="s">
+        <v>768</v>
+      </c>
+      <c r="O74" t="s">
+        <v>768</v>
+      </c>
       <c r="P74" t="s">
         <v>14</v>
       </c>
@@ -5974,8 +6262,12 @@
       <c r="M75" t="s">
         <v>21</v>
       </c>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
+      <c r="N75" t="s">
+        <v>768</v>
+      </c>
+      <c r="O75" t="s">
+        <v>768</v>
+      </c>
       <c r="P75" t="s">
         <v>14</v>
       </c>
@@ -6017,8 +6309,12 @@
       <c r="M76" t="s">
         <v>21</v>
       </c>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
+      <c r="N76" t="s">
+        <v>768</v>
+      </c>
+      <c r="O76" t="s">
+        <v>768</v>
+      </c>
       <c r="P76" t="s">
         <v>14</v>
       </c>
@@ -6060,8 +6356,12 @@
       <c r="M77" t="s">
         <v>21</v>
       </c>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
+      <c r="N77" t="s">
+        <v>768</v>
+      </c>
+      <c r="O77" t="s">
+        <v>768</v>
+      </c>
       <c r="P77" t="s">
         <v>14</v>
       </c>
@@ -6103,8 +6403,12 @@
       <c r="M78" t="s">
         <v>21</v>
       </c>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
+      <c r="N78" t="s">
+        <v>768</v>
+      </c>
+      <c r="O78" t="s">
+        <v>768</v>
+      </c>
       <c r="P78" t="s">
         <v>14</v>
       </c>
@@ -6146,8 +6450,12 @@
       <c r="M79" t="s">
         <v>21</v>
       </c>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
+      <c r="N79" t="s">
+        <v>768</v>
+      </c>
+      <c r="O79" t="s">
+        <v>768</v>
+      </c>
       <c r="P79" t="s">
         <v>14</v>
       </c>
@@ -6189,8 +6497,12 @@
       <c r="M80" t="s">
         <v>21</v>
       </c>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
+      <c r="N80" t="s">
+        <v>768</v>
+      </c>
+      <c r="O80" t="s">
+        <v>768</v>
+      </c>
       <c r="P80" t="s">
         <v>14</v>
       </c>
@@ -6232,8 +6544,12 @@
       <c r="M81" t="s">
         <v>21</v>
       </c>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
+      <c r="N81" t="s">
+        <v>768</v>
+      </c>
+      <c r="O81" t="s">
+        <v>768</v>
+      </c>
       <c r="P81" t="s">
         <v>14</v>
       </c>
@@ -6275,8 +6591,12 @@
       <c r="M82" t="s">
         <v>21</v>
       </c>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
+      <c r="N82" t="s">
+        <v>768</v>
+      </c>
+      <c r="O82" t="s">
+        <v>768</v>
+      </c>
       <c r="P82" t="s">
         <v>14</v>
       </c>
@@ -6318,8 +6638,12 @@
       <c r="M83" t="s">
         <v>21</v>
       </c>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
+      <c r="N83" t="s">
+        <v>768</v>
+      </c>
+      <c r="O83" t="s">
+        <v>768</v>
+      </c>
       <c r="P83" t="s">
         <v>14</v>
       </c>
@@ -6361,8 +6685,12 @@
       <c r="M84" t="s">
         <v>21</v>
       </c>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
+      <c r="N84" t="s">
+        <v>768</v>
+      </c>
+      <c r="O84" t="s">
+        <v>768</v>
+      </c>
       <c r="P84" t="s">
         <v>14</v>
       </c>
@@ -6404,8 +6732,12 @@
       <c r="M85" t="s">
         <v>21</v>
       </c>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
+      <c r="N85" t="s">
+        <v>768</v>
+      </c>
+      <c r="O85" t="s">
+        <v>768</v>
+      </c>
       <c r="P85" t="s">
         <v>14</v>
       </c>
@@ -6447,8 +6779,12 @@
       <c r="M86" t="s">
         <v>21</v>
       </c>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
+      <c r="N86" t="s">
+        <v>768</v>
+      </c>
+      <c r="O86" t="s">
+        <v>768</v>
+      </c>
       <c r="P86" t="s">
         <v>14</v>
       </c>
@@ -6490,8 +6826,12 @@
       <c r="M87" t="s">
         <v>21</v>
       </c>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
+      <c r="N87" t="s">
+        <v>768</v>
+      </c>
+      <c r="O87" t="s">
+        <v>768</v>
+      </c>
       <c r="P87" t="s">
         <v>14</v>
       </c>
@@ -6533,8 +6873,12 @@
       <c r="M88" t="s">
         <v>21</v>
       </c>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
+      <c r="N88" t="s">
+        <v>768</v>
+      </c>
+      <c r="O88" t="s">
+        <v>768</v>
+      </c>
       <c r="P88" t="s">
         <v>14</v>
       </c>
@@ -6576,8 +6920,12 @@
       <c r="M89" t="s">
         <v>21</v>
       </c>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
+      <c r="N89" t="s">
+        <v>768</v>
+      </c>
+      <c r="O89" t="s">
+        <v>768</v>
+      </c>
       <c r="P89" t="s">
         <v>14</v>
       </c>
@@ -6619,8 +6967,12 @@
       <c r="M90" t="s">
         <v>21</v>
       </c>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
+      <c r="N90" t="s">
+        <v>768</v>
+      </c>
+      <c r="O90" t="s">
+        <v>768</v>
+      </c>
       <c r="P90" t="s">
         <v>14</v>
       </c>
@@ -6662,8 +7014,12 @@
       <c r="M91" t="s">
         <v>21</v>
       </c>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
+      <c r="N91" t="s">
+        <v>768</v>
+      </c>
+      <c r="O91" t="s">
+        <v>768</v>
+      </c>
       <c r="P91" t="s">
         <v>14</v>
       </c>
@@ -6705,8 +7061,12 @@
       <c r="M92" t="s">
         <v>21</v>
       </c>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
+      <c r="N92" t="s">
+        <v>768</v>
+      </c>
+      <c r="O92" t="s">
+        <v>768</v>
+      </c>
       <c r="P92" t="s">
         <v>14</v>
       </c>
@@ -6748,8 +7108,12 @@
       <c r="M93" t="s">
         <v>21</v>
       </c>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
+      <c r="N93" t="s">
+        <v>768</v>
+      </c>
+      <c r="O93" t="s">
+        <v>768</v>
+      </c>
       <c r="P93" t="s">
         <v>14</v>
       </c>
@@ -6791,8 +7155,12 @@
       <c r="M94" t="s">
         <v>21</v>
       </c>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
+      <c r="N94" t="s">
+        <v>768</v>
+      </c>
+      <c r="O94" t="s">
+        <v>768</v>
+      </c>
       <c r="P94" t="s">
         <v>14</v>
       </c>
@@ -6834,8 +7202,12 @@
       <c r="M95" t="s">
         <v>21</v>
       </c>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
+      <c r="N95" t="s">
+        <v>768</v>
+      </c>
+      <c r="O95" t="s">
+        <v>768</v>
+      </c>
       <c r="P95" t="s">
         <v>14</v>
       </c>
@@ -6877,8 +7249,12 @@
       <c r="M96" t="s">
         <v>21</v>
       </c>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
+      <c r="N96" t="s">
+        <v>768</v>
+      </c>
+      <c r="O96" t="s">
+        <v>768</v>
+      </c>
       <c r="P96" t="s">
         <v>14</v>
       </c>
@@ -6920,8 +7296,12 @@
       <c r="M97" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
+      <c r="N97" t="s">
+        <v>768</v>
+      </c>
+      <c r="O97" t="s">
+        <v>768</v>
+      </c>
       <c r="P97" t="s">
         <v>14</v>
       </c>
@@ -6963,8 +7343,12 @@
       <c r="M98" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
+      <c r="N98" t="s">
+        <v>768</v>
+      </c>
+      <c r="O98" t="s">
+        <v>768</v>
+      </c>
       <c r="P98" t="s">
         <v>14</v>
       </c>
@@ -7006,8 +7390,12 @@
       <c r="M99" t="s">
         <v>21</v>
       </c>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
+      <c r="N99" t="s">
+        <v>768</v>
+      </c>
+      <c r="O99" t="s">
+        <v>768</v>
+      </c>
       <c r="P99" t="s">
         <v>14</v>
       </c>
@@ -7049,8 +7437,12 @@
       <c r="M100" t="s">
         <v>21</v>
       </c>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
+      <c r="N100" t="s">
+        <v>768</v>
+      </c>
+      <c r="O100" t="s">
+        <v>768</v>
+      </c>
       <c r="P100" t="s">
         <v>14</v>
       </c>
@@ -7092,8 +7484,12 @@
       <c r="M101" t="s">
         <v>21</v>
       </c>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
+      <c r="N101" t="s">
+        <v>768</v>
+      </c>
+      <c r="O101" t="s">
+        <v>768</v>
+      </c>
       <c r="P101" t="s">
         <v>14</v>
       </c>
@@ -7135,8 +7531,12 @@
       <c r="M102" t="s">
         <v>21</v>
       </c>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
+      <c r="N102" t="s">
+        <v>768</v>
+      </c>
+      <c r="O102" t="s">
+        <v>768</v>
+      </c>
       <c r="P102" t="s">
         <v>14</v>
       </c>
@@ -7178,8 +7578,12 @@
       <c r="M103" t="s">
         <v>21</v>
       </c>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
+      <c r="N103" t="s">
+        <v>768</v>
+      </c>
+      <c r="O103" t="s">
+        <v>768</v>
+      </c>
       <c r="P103" t="s">
         <v>14</v>
       </c>
@@ -7221,8 +7625,12 @@
       <c r="M104" t="s">
         <v>21</v>
       </c>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
+      <c r="N104" t="s">
+        <v>768</v>
+      </c>
+      <c r="O104" t="s">
+        <v>768</v>
+      </c>
       <c r="P104" t="s">
         <v>14</v>
       </c>
@@ -7264,8 +7672,12 @@
       <c r="M105" t="s">
         <v>21</v>
       </c>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
+      <c r="N105" t="s">
+        <v>768</v>
+      </c>
+      <c r="O105" t="s">
+        <v>768</v>
+      </c>
       <c r="P105" t="s">
         <v>14</v>
       </c>
@@ -7307,8 +7719,12 @@
       <c r="M106" t="s">
         <v>21</v>
       </c>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
+      <c r="N106" t="s">
+        <v>768</v>
+      </c>
+      <c r="O106" t="s">
+        <v>768</v>
+      </c>
       <c r="P106" t="s">
         <v>14</v>
       </c>
@@ -7350,8 +7766,12 @@
       <c r="M107" t="s">
         <v>21</v>
       </c>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
+      <c r="N107" t="s">
+        <v>768</v>
+      </c>
+      <c r="O107" t="s">
+        <v>768</v>
+      </c>
       <c r="P107" t="s">
         <v>14</v>
       </c>
@@ -7393,8 +7813,12 @@
       <c r="M108" t="s">
         <v>21</v>
       </c>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
+      <c r="N108" t="s">
+        <v>768</v>
+      </c>
+      <c r="O108" t="s">
+        <v>768</v>
+      </c>
       <c r="P108" t="s">
         <v>14</v>
       </c>
@@ -7436,8 +7860,12 @@
       <c r="M109" t="s">
         <v>21</v>
       </c>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
+      <c r="N109" t="s">
+        <v>768</v>
+      </c>
+      <c r="O109" t="s">
+        <v>768</v>
+      </c>
       <c r="P109" t="s">
         <v>14</v>
       </c>
@@ -7479,8 +7907,12 @@
       <c r="M110" t="s">
         <v>21</v>
       </c>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
+      <c r="N110" t="s">
+        <v>768</v>
+      </c>
+      <c r="O110" t="s">
+        <v>768</v>
+      </c>
       <c r="P110" t="s">
         <v>14</v>
       </c>
@@ -7522,8 +7954,12 @@
       <c r="M111" t="s">
         <v>21</v>
       </c>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
+      <c r="N111" t="s">
+        <v>768</v>
+      </c>
+      <c r="O111" t="s">
+        <v>768</v>
+      </c>
       <c r="P111" t="s">
         <v>14</v>
       </c>
@@ -7565,8 +8001,12 @@
       <c r="M112" t="s">
         <v>21</v>
       </c>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
+      <c r="N112" t="s">
+        <v>768</v>
+      </c>
+      <c r="O112" t="s">
+        <v>768</v>
+      </c>
       <c r="P112" t="s">
         <v>14</v>
       </c>
@@ -7608,8 +8048,12 @@
       <c r="M113" t="s">
         <v>21</v>
       </c>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
+      <c r="N113" t="s">
+        <v>768</v>
+      </c>
+      <c r="O113" t="s">
+        <v>768</v>
+      </c>
       <c r="P113" t="s">
         <v>14</v>
       </c>
@@ -7651,8 +8095,12 @@
       <c r="M114" t="s">
         <v>21</v>
       </c>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
+      <c r="N114" t="s">
+        <v>768</v>
+      </c>
+      <c r="O114" t="s">
+        <v>768</v>
+      </c>
       <c r="P114" t="s">
         <v>14</v>
       </c>
@@ -7694,8 +8142,12 @@
       <c r="M115" t="s">
         <v>21</v>
       </c>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
+      <c r="N115" t="s">
+        <v>768</v>
+      </c>
+      <c r="O115" t="s">
+        <v>768</v>
+      </c>
       <c r="P115" t="s">
         <v>14</v>
       </c>
@@ -7737,8 +8189,12 @@
       <c r="M116" t="s">
         <v>21</v>
       </c>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
+      <c r="N116" t="s">
+        <v>768</v>
+      </c>
+      <c r="O116" t="s">
+        <v>768</v>
+      </c>
       <c r="P116" t="s">
         <v>14</v>
       </c>
@@ -7780,8 +8236,12 @@
       <c r="M117" t="s">
         <v>21</v>
       </c>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
+      <c r="N117" t="s">
+        <v>768</v>
+      </c>
+      <c r="O117" t="s">
+        <v>768</v>
+      </c>
       <c r="P117" t="s">
         <v>14</v>
       </c>
@@ -7823,8 +8283,12 @@
       <c r="M118" t="s">
         <v>21</v>
       </c>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
+      <c r="N118" t="s">
+        <v>768</v>
+      </c>
+      <c r="O118" t="s">
+        <v>768</v>
+      </c>
       <c r="P118" t="s">
         <v>14</v>
       </c>
@@ -7866,8 +8330,12 @@
       <c r="M119" t="s">
         <v>21</v>
       </c>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
+      <c r="N119" t="s">
+        <v>768</v>
+      </c>
+      <c r="O119" t="s">
+        <v>768</v>
+      </c>
       <c r="P119" t="s">
         <v>14</v>
       </c>
@@ -7909,8 +8377,12 @@
       <c r="M120" t="s">
         <v>21</v>
       </c>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
+      <c r="N120" t="s">
+        <v>768</v>
+      </c>
+      <c r="O120" t="s">
+        <v>768</v>
+      </c>
       <c r="P120" t="s">
         <v>14</v>
       </c>
@@ -7952,8 +8424,12 @@
       <c r="M121" t="s">
         <v>21</v>
       </c>
-      <c r="N121" s="3"/>
-      <c r="O121" s="3"/>
+      <c r="N121" t="s">
+        <v>768</v>
+      </c>
+      <c r="O121" t="s">
+        <v>768</v>
+      </c>
       <c r="P121" t="s">
         <v>14</v>
       </c>
@@ -7995,8 +8471,12 @@
       <c r="M122" t="s">
         <v>21</v>
       </c>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
+      <c r="N122" t="s">
+        <v>768</v>
+      </c>
+      <c r="O122" t="s">
+        <v>768</v>
+      </c>
       <c r="P122" t="s">
         <v>14</v>
       </c>
@@ -8038,8 +8518,12 @@
       <c r="M123" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
+      <c r="N123" t="s">
+        <v>768</v>
+      </c>
+      <c r="O123" t="s">
+        <v>768</v>
+      </c>
       <c r="P123" t="s">
         <v>14</v>
       </c>
@@ -8081,8 +8565,12 @@
       <c r="M124" t="s">
         <v>21</v>
       </c>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
+      <c r="N124" t="s">
+        <v>768</v>
+      </c>
+      <c r="O124" t="s">
+        <v>768</v>
+      </c>
       <c r="P124" t="s">
         <v>14</v>
       </c>
@@ -8124,8 +8612,12 @@
       <c r="M125" t="s">
         <v>21</v>
       </c>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3"/>
+      <c r="N125" t="s">
+        <v>768</v>
+      </c>
+      <c r="O125" t="s">
+        <v>768</v>
+      </c>
       <c r="P125" t="s">
         <v>14</v>
       </c>
@@ -8167,8 +8659,12 @@
       <c r="M126" t="s">
         <v>21</v>
       </c>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
+      <c r="N126" t="s">
+        <v>768</v>
+      </c>
+      <c r="O126" t="s">
+        <v>768</v>
+      </c>
       <c r="P126" t="s">
         <v>14</v>
       </c>
@@ -8210,8 +8706,12 @@
       <c r="M127" t="s">
         <v>21</v>
       </c>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
+      <c r="N127" t="s">
+        <v>768</v>
+      </c>
+      <c r="O127" t="s">
+        <v>768</v>
+      </c>
       <c r="P127" t="s">
         <v>14</v>
       </c>
@@ -8253,8 +8753,12 @@
       <c r="M128" t="s">
         <v>21</v>
       </c>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
+      <c r="N128" t="s">
+        <v>768</v>
+      </c>
+      <c r="O128" t="s">
+        <v>768</v>
+      </c>
       <c r="P128" t="s">
         <v>14</v>
       </c>
@@ -8296,8 +8800,12 @@
       <c r="M129" t="s">
         <v>21</v>
       </c>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
+      <c r="N129" t="s">
+        <v>768</v>
+      </c>
+      <c r="O129" t="s">
+        <v>768</v>
+      </c>
       <c r="P129" t="s">
         <v>14</v>
       </c>
@@ -8339,8 +8847,12 @@
       <c r="M130" t="s">
         <v>21</v>
       </c>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
+      <c r="N130" t="s">
+        <v>768</v>
+      </c>
+      <c r="O130" t="s">
+        <v>768</v>
+      </c>
       <c r="P130" t="s">
         <v>14</v>
       </c>
@@ -8382,8 +8894,12 @@
       <c r="M131" t="s">
         <v>21</v>
       </c>
-      <c r="N131" s="3"/>
-      <c r="O131" s="3"/>
+      <c r="N131" t="s">
+        <v>768</v>
+      </c>
+      <c r="O131" t="s">
+        <v>768</v>
+      </c>
       <c r="P131" t="s">
         <v>14</v>
       </c>
@@ -8425,8 +8941,12 @@
       <c r="M132" t="s">
         <v>21</v>
       </c>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3"/>
+      <c r="N132" t="s">
+        <v>768</v>
+      </c>
+      <c r="O132" t="s">
+        <v>768</v>
+      </c>
       <c r="P132" t="s">
         <v>14</v>
       </c>
@@ -8468,8 +8988,12 @@
       <c r="M133" t="s">
         <v>21</v>
       </c>
-      <c r="N133" s="3"/>
-      <c r="O133" s="3"/>
+      <c r="N133" t="s">
+        <v>768</v>
+      </c>
+      <c r="O133" t="s">
+        <v>768</v>
+      </c>
       <c r="P133" t="s">
         <v>14</v>
       </c>
@@ -8511,8 +9035,12 @@
       <c r="M134" t="s">
         <v>21</v>
       </c>
-      <c r="N134" s="3"/>
-      <c r="O134" s="3"/>
+      <c r="N134" t="s">
+        <v>768</v>
+      </c>
+      <c r="O134" t="s">
+        <v>768</v>
+      </c>
       <c r="P134" t="s">
         <v>14</v>
       </c>
@@ -8554,8 +9082,12 @@
       <c r="M135" t="s">
         <v>21</v>
       </c>
-      <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
+      <c r="N135" t="s">
+        <v>768</v>
+      </c>
+      <c r="O135" t="s">
+        <v>768</v>
+      </c>
       <c r="P135" t="s">
         <v>14</v>
       </c>
@@ -8597,8 +9129,12 @@
       <c r="M136" t="s">
         <v>21</v>
       </c>
-      <c r="N136" s="3"/>
-      <c r="O136" s="3"/>
+      <c r="N136" t="s">
+        <v>768</v>
+      </c>
+      <c r="O136" t="s">
+        <v>768</v>
+      </c>
       <c r="P136" t="s">
         <v>14</v>
       </c>
@@ -8640,8 +9176,12 @@
       <c r="M137" t="s">
         <v>21</v>
       </c>
-      <c r="N137" s="3"/>
-      <c r="O137" s="3"/>
+      <c r="N137" t="s">
+        <v>768</v>
+      </c>
+      <c r="O137" t="s">
+        <v>768</v>
+      </c>
       <c r="P137" t="s">
         <v>14</v>
       </c>
@@ -8683,8 +9223,12 @@
       <c r="M138" t="s">
         <v>21</v>
       </c>
-      <c r="N138" s="3"/>
-      <c r="O138" s="3"/>
+      <c r="N138" t="s">
+        <v>768</v>
+      </c>
+      <c r="O138" t="s">
+        <v>768</v>
+      </c>
       <c r="P138" t="s">
         <v>14</v>
       </c>
@@ -8726,8 +9270,12 @@
       <c r="M139" t="s">
         <v>21</v>
       </c>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
+      <c r="N139" t="s">
+        <v>768</v>
+      </c>
+      <c r="O139" t="s">
+        <v>768</v>
+      </c>
       <c r="P139" t="s">
         <v>14</v>
       </c>
@@ -8769,8 +9317,12 @@
       <c r="M140" t="s">
         <v>21</v>
       </c>
-      <c r="N140" s="3"/>
-      <c r="O140" s="3"/>
+      <c r="N140" t="s">
+        <v>768</v>
+      </c>
+      <c r="O140" t="s">
+        <v>768</v>
+      </c>
       <c r="P140" t="s">
         <v>14</v>
       </c>
@@ -8812,8 +9364,12 @@
       <c r="M141" t="s">
         <v>21</v>
       </c>
-      <c r="N141" s="3"/>
-      <c r="O141" s="3"/>
+      <c r="N141" t="s">
+        <v>768</v>
+      </c>
+      <c r="O141" t="s">
+        <v>768</v>
+      </c>
       <c r="P141" t="s">
         <v>14</v>
       </c>
@@ -8855,8 +9411,12 @@
       <c r="M142" t="s">
         <v>21</v>
       </c>
-      <c r="N142" s="3"/>
-      <c r="O142" s="3"/>
+      <c r="N142" t="s">
+        <v>768</v>
+      </c>
+      <c r="O142" t="s">
+        <v>768</v>
+      </c>
       <c r="P142" t="s">
         <v>14</v>
       </c>
@@ -8898,8 +9458,12 @@
       <c r="M143" t="s">
         <v>21</v>
       </c>
-      <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
+      <c r="N143" t="s">
+        <v>768</v>
+      </c>
+      <c r="O143" t="s">
+        <v>768</v>
+      </c>
       <c r="P143" t="s">
         <v>14</v>
       </c>
@@ -8941,8 +9505,12 @@
       <c r="M144" t="s">
         <v>21</v>
       </c>
-      <c r="N144" s="3"/>
-      <c r="O144" s="3"/>
+      <c r="N144" t="s">
+        <v>768</v>
+      </c>
+      <c r="O144" t="s">
+        <v>768</v>
+      </c>
       <c r="P144" t="s">
         <v>14</v>
       </c>
@@ -8984,8 +9552,12 @@
       <c r="M145" t="s">
         <v>21</v>
       </c>
-      <c r="N145" s="3"/>
-      <c r="O145" s="3"/>
+      <c r="N145" t="s">
+        <v>768</v>
+      </c>
+      <c r="O145" t="s">
+        <v>768</v>
+      </c>
       <c r="P145" t="s">
         <v>14</v>
       </c>
@@ -9027,8 +9599,12 @@
       <c r="M146" t="s">
         <v>21</v>
       </c>
-      <c r="N146" s="3"/>
-      <c r="O146" s="3"/>
+      <c r="N146" t="s">
+        <v>768</v>
+      </c>
+      <c r="O146" t="s">
+        <v>768</v>
+      </c>
       <c r="P146" t="s">
         <v>14</v>
       </c>
@@ -9070,8 +9646,12 @@
       <c r="M147" t="s">
         <v>21</v>
       </c>
-      <c r="N147" s="3"/>
-      <c r="O147" s="3"/>
+      <c r="N147" t="s">
+        <v>768</v>
+      </c>
+      <c r="O147" t="s">
+        <v>768</v>
+      </c>
       <c r="P147" t="s">
         <v>14</v>
       </c>
@@ -9113,8 +9693,12 @@
       <c r="M148" t="s">
         <v>21</v>
       </c>
-      <c r="N148" s="3"/>
-      <c r="O148" s="3"/>
+      <c r="N148" t="s">
+        <v>768</v>
+      </c>
+      <c r="O148" t="s">
+        <v>768</v>
+      </c>
       <c r="P148" t="s">
         <v>14</v>
       </c>
@@ -9156,8 +9740,12 @@
       <c r="M149" t="s">
         <v>21</v>
       </c>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
+      <c r="N149" t="s">
+        <v>768</v>
+      </c>
+      <c r="O149" t="s">
+        <v>768</v>
+      </c>
       <c r="P149" t="s">
         <v>14</v>
       </c>
@@ -9199,8 +9787,12 @@
       <c r="M150" t="s">
         <v>21</v>
       </c>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
+      <c r="N150" t="s">
+        <v>768</v>
+      </c>
+      <c r="O150" t="s">
+        <v>768</v>
+      </c>
       <c r="P150" t="s">
         <v>14</v>
       </c>
@@ -9242,8 +9834,12 @@
       <c r="M151" t="s">
         <v>21</v>
       </c>
-      <c r="N151" s="3"/>
-      <c r="O151" s="3"/>
+      <c r="N151" t="s">
+        <v>768</v>
+      </c>
+      <c r="O151" t="s">
+        <v>768</v>
+      </c>
       <c r="P151" t="s">
         <v>14</v>
       </c>
@@ -9285,8 +9881,12 @@
       <c r="M152" t="s">
         <v>21</v>
       </c>
-      <c r="N152" s="3"/>
-      <c r="O152" s="3"/>
+      <c r="N152" t="s">
+        <v>768</v>
+      </c>
+      <c r="O152" t="s">
+        <v>768</v>
+      </c>
       <c r="P152" t="s">
         <v>14</v>
       </c>
@@ -9328,8 +9928,12 @@
       <c r="M153" t="s">
         <v>21</v>
       </c>
-      <c r="N153" s="3"/>
-      <c r="O153" s="3"/>
+      <c r="N153" t="s">
+        <v>768</v>
+      </c>
+      <c r="O153" t="s">
+        <v>768</v>
+      </c>
       <c r="P153" t="s">
         <v>14</v>
       </c>
@@ -9371,8 +9975,12 @@
       <c r="M154" t="s">
         <v>21</v>
       </c>
-      <c r="N154" s="3"/>
-      <c r="O154" s="3"/>
+      <c r="N154" t="s">
+        <v>768</v>
+      </c>
+      <c r="O154" t="s">
+        <v>768</v>
+      </c>
       <c r="P154" t="s">
         <v>14</v>
       </c>
@@ -9414,8 +10022,12 @@
       <c r="M155" t="s">
         <v>21</v>
       </c>
-      <c r="N155" s="3"/>
-      <c r="O155" s="3"/>
+      <c r="N155" t="s">
+        <v>768</v>
+      </c>
+      <c r="O155" t="s">
+        <v>768</v>
+      </c>
       <c r="P155" t="s">
         <v>14</v>
       </c>
@@ -9457,8 +10069,12 @@
       <c r="M156" t="s">
         <v>21</v>
       </c>
-      <c r="N156" s="3"/>
-      <c r="O156" s="3"/>
+      <c r="N156" t="s">
+        <v>768</v>
+      </c>
+      <c r="O156" t="s">
+        <v>768</v>
+      </c>
       <c r="P156" t="s">
         <v>14</v>
       </c>
@@ -9500,8 +10116,12 @@
       <c r="M157" t="s">
         <v>21</v>
       </c>
-      <c r="N157" s="3"/>
-      <c r="O157" s="3"/>
+      <c r="N157" t="s">
+        <v>768</v>
+      </c>
+      <c r="O157" t="s">
+        <v>768</v>
+      </c>
       <c r="P157" t="s">
         <v>14</v>
       </c>
@@ -9543,8 +10163,12 @@
       <c r="M158" t="s">
         <v>21</v>
       </c>
-      <c r="N158" s="3"/>
-      <c r="O158" s="3"/>
+      <c r="N158" t="s">
+        <v>768</v>
+      </c>
+      <c r="O158" t="s">
+        <v>768</v>
+      </c>
       <c r="P158" t="s">
         <v>14</v>
       </c>
@@ -9586,8 +10210,12 @@
       <c r="M159" t="s">
         <v>21</v>
       </c>
-      <c r="N159" s="3"/>
-      <c r="O159" s="3"/>
+      <c r="N159" t="s">
+        <v>768</v>
+      </c>
+      <c r="O159" t="s">
+        <v>768</v>
+      </c>
       <c r="P159" t="s">
         <v>14</v>
       </c>
@@ -9629,8 +10257,12 @@
       <c r="M160" t="s">
         <v>21</v>
       </c>
-      <c r="N160" s="3"/>
-      <c r="O160" s="3"/>
+      <c r="N160" t="s">
+        <v>768</v>
+      </c>
+      <c r="O160" t="s">
+        <v>768</v>
+      </c>
       <c r="P160" t="s">
         <v>14</v>
       </c>
@@ -9672,8 +10304,12 @@
       <c r="M161" t="s">
         <v>21</v>
       </c>
-      <c r="N161" s="3"/>
-      <c r="O161" s="3"/>
+      <c r="N161" t="s">
+        <v>768</v>
+      </c>
+      <c r="O161" t="s">
+        <v>768</v>
+      </c>
       <c r="P161" t="s">
         <v>14</v>
       </c>
@@ -9715,8 +10351,12 @@
       <c r="M162" t="s">
         <v>21</v>
       </c>
-      <c r="N162" s="3"/>
-      <c r="O162" s="3"/>
+      <c r="N162" t="s">
+        <v>768</v>
+      </c>
+      <c r="O162" t="s">
+        <v>768</v>
+      </c>
       <c r="P162" t="s">
         <v>14</v>
       </c>
@@ -9758,8 +10398,12 @@
       <c r="M163" t="s">
         <v>21</v>
       </c>
-      <c r="N163" s="3"/>
-      <c r="O163" s="3"/>
+      <c r="N163" t="s">
+        <v>768</v>
+      </c>
+      <c r="O163" t="s">
+        <v>768</v>
+      </c>
       <c r="P163" t="s">
         <v>14</v>
       </c>
@@ -9801,8 +10445,12 @@
       <c r="M164" t="s">
         <v>21</v>
       </c>
-      <c r="N164" s="3"/>
-      <c r="O164" s="3"/>
+      <c r="N164" t="s">
+        <v>768</v>
+      </c>
+      <c r="O164" t="s">
+        <v>768</v>
+      </c>
       <c r="P164" t="s">
         <v>14</v>
       </c>
@@ -9844,8 +10492,12 @@
       <c r="M165" t="s">
         <v>21</v>
       </c>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
+      <c r="N165" t="s">
+        <v>768</v>
+      </c>
+      <c r="O165" t="s">
+        <v>768</v>
+      </c>
       <c r="P165" t="s">
         <v>14</v>
       </c>
@@ -9887,8 +10539,12 @@
       <c r="M166" t="s">
         <v>21</v>
       </c>
-      <c r="N166" s="3"/>
-      <c r="O166" s="3"/>
+      <c r="N166" t="s">
+        <v>768</v>
+      </c>
+      <c r="O166" t="s">
+        <v>768</v>
+      </c>
       <c r="P166" t="s">
         <v>14</v>
       </c>
@@ -9930,8 +10586,12 @@
       <c r="M167" t="s">
         <v>21</v>
       </c>
-      <c r="N167" s="3"/>
-      <c r="O167" s="3"/>
+      <c r="N167" t="s">
+        <v>768</v>
+      </c>
+      <c r="O167" t="s">
+        <v>768</v>
+      </c>
       <c r="P167" t="s">
         <v>14</v>
       </c>
@@ -9973,8 +10633,12 @@
       <c r="M168" t="s">
         <v>21</v>
       </c>
-      <c r="N168" s="3"/>
-      <c r="O168" s="3"/>
+      <c r="N168" t="s">
+        <v>768</v>
+      </c>
+      <c r="O168" t="s">
+        <v>768</v>
+      </c>
       <c r="P168" t="s">
         <v>14</v>
       </c>
@@ -10016,8 +10680,12 @@
       <c r="M169" t="s">
         <v>21</v>
       </c>
-      <c r="N169" s="3"/>
-      <c r="O169" s="3"/>
+      <c r="N169" t="s">
+        <v>768</v>
+      </c>
+      <c r="O169" t="s">
+        <v>768</v>
+      </c>
       <c r="P169" t="s">
         <v>14</v>
       </c>
@@ -10059,8 +10727,12 @@
       <c r="M170" t="s">
         <v>21</v>
       </c>
-      <c r="N170" s="3"/>
-      <c r="O170" s="3"/>
+      <c r="N170" t="s">
+        <v>768</v>
+      </c>
+      <c r="O170" t="s">
+        <v>768</v>
+      </c>
       <c r="P170" t="s">
         <v>14</v>
       </c>
@@ -10102,8 +10774,12 @@
       <c r="M171" t="s">
         <v>21</v>
       </c>
-      <c r="N171" s="3"/>
-      <c r="O171" s="3"/>
+      <c r="N171" t="s">
+        <v>768</v>
+      </c>
+      <c r="O171" t="s">
+        <v>768</v>
+      </c>
       <c r="P171" t="s">
         <v>14</v>
       </c>
@@ -10145,8 +10821,12 @@
       <c r="M172" t="s">
         <v>21</v>
       </c>
-      <c r="N172" s="3"/>
-      <c r="O172" s="3"/>
+      <c r="N172" t="s">
+        <v>768</v>
+      </c>
+      <c r="O172" t="s">
+        <v>768</v>
+      </c>
       <c r="P172" t="s">
         <v>14</v>
       </c>
@@ -10188,8 +10868,12 @@
       <c r="M173" t="s">
         <v>21</v>
       </c>
-      <c r="N173" s="3"/>
-      <c r="O173" s="3"/>
+      <c r="N173" t="s">
+        <v>768</v>
+      </c>
+      <c r="O173" t="s">
+        <v>768</v>
+      </c>
       <c r="P173" t="s">
         <v>14</v>
       </c>
@@ -10231,8 +10915,12 @@
       <c r="M174" t="s">
         <v>21</v>
       </c>
-      <c r="N174" s="3"/>
-      <c r="O174" s="3"/>
+      <c r="N174" t="s">
+        <v>768</v>
+      </c>
+      <c r="O174" t="s">
+        <v>768</v>
+      </c>
       <c r="P174" t="s">
         <v>14</v>
       </c>
@@ -10274,8 +10962,12 @@
       <c r="M175" t="s">
         <v>21</v>
       </c>
-      <c r="N175" s="3"/>
-      <c r="O175" s="3"/>
+      <c r="N175" t="s">
+        <v>768</v>
+      </c>
+      <c r="O175" t="s">
+        <v>768</v>
+      </c>
       <c r="P175" t="s">
         <v>14</v>
       </c>
@@ -10317,8 +11009,12 @@
       <c r="M176" t="s">
         <v>21</v>
       </c>
-      <c r="N176" s="3"/>
-      <c r="O176" s="3"/>
+      <c r="N176" t="s">
+        <v>768</v>
+      </c>
+      <c r="O176" t="s">
+        <v>768</v>
+      </c>
       <c r="P176" t="s">
         <v>14</v>
       </c>
@@ -10360,8 +11056,12 @@
       <c r="M177" t="s">
         <v>21</v>
       </c>
-      <c r="N177" s="3"/>
-      <c r="O177" s="3"/>
+      <c r="N177" t="s">
+        <v>768</v>
+      </c>
+      <c r="O177" t="s">
+        <v>768</v>
+      </c>
       <c r="P177" t="s">
         <v>14</v>
       </c>
@@ -10403,8 +11103,12 @@
       <c r="M178" t="s">
         <v>21</v>
       </c>
-      <c r="N178" s="3"/>
-      <c r="O178" s="3"/>
+      <c r="N178" t="s">
+        <v>768</v>
+      </c>
+      <c r="O178" t="s">
+        <v>768</v>
+      </c>
       <c r="P178" t="s">
         <v>14</v>
       </c>
@@ -10446,8 +11150,12 @@
       <c r="M179" t="s">
         <v>21</v>
       </c>
-      <c r="N179" s="3"/>
-      <c r="O179" s="3"/>
+      <c r="N179" t="s">
+        <v>768</v>
+      </c>
+      <c r="O179" t="s">
+        <v>768</v>
+      </c>
       <c r="P179" t="s">
         <v>14</v>
       </c>
@@ -10489,8 +11197,12 @@
       <c r="M180" t="s">
         <v>21</v>
       </c>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
+      <c r="N180" t="s">
+        <v>768</v>
+      </c>
+      <c r="O180" t="s">
+        <v>768</v>
+      </c>
       <c r="P180" t="s">
         <v>14</v>
       </c>
@@ -10532,8 +11244,12 @@
       <c r="M181" t="s">
         <v>21</v>
       </c>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
+      <c r="N181" t="s">
+        <v>768</v>
+      </c>
+      <c r="O181" t="s">
+        <v>768</v>
+      </c>
       <c r="P181" t="s">
         <v>14</v>
       </c>
@@ -10575,8 +11291,12 @@
       <c r="M182" t="s">
         <v>21</v>
       </c>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
+      <c r="N182" t="s">
+        <v>768</v>
+      </c>
+      <c r="O182" t="s">
+        <v>768</v>
+      </c>
       <c r="P182" t="s">
         <v>14</v>
       </c>
@@ -10618,8 +11338,12 @@
       <c r="M183" t="s">
         <v>21</v>
       </c>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
+      <c r="N183" t="s">
+        <v>768</v>
+      </c>
+      <c r="O183" t="s">
+        <v>768</v>
+      </c>
       <c r="P183" t="s">
         <v>14</v>
       </c>
@@ -10661,8 +11385,12 @@
       <c r="M184" t="s">
         <v>21</v>
       </c>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
+      <c r="N184" t="s">
+        <v>768</v>
+      </c>
+      <c r="O184" t="s">
+        <v>768</v>
+      </c>
       <c r="P184" t="s">
         <v>14</v>
       </c>
@@ -10704,8 +11432,12 @@
       <c r="M185" t="s">
         <v>21</v>
       </c>
-      <c r="N185" s="3"/>
-      <c r="O185" s="3"/>
+      <c r="N185" t="s">
+        <v>768</v>
+      </c>
+      <c r="O185" t="s">
+        <v>768</v>
+      </c>
       <c r="P185" t="s">
         <v>14</v>
       </c>
@@ -10747,8 +11479,12 @@
       <c r="M186" t="s">
         <v>21</v>
       </c>
-      <c r="N186" s="3"/>
-      <c r="O186" s="3"/>
+      <c r="N186" t="s">
+        <v>768</v>
+      </c>
+      <c r="O186" t="s">
+        <v>768</v>
+      </c>
       <c r="P186" t="s">
         <v>14</v>
       </c>
@@ -10790,8 +11526,12 @@
       <c r="M187" t="s">
         <v>21</v>
       </c>
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
+      <c r="N187" t="s">
+        <v>768</v>
+      </c>
+      <c r="O187" t="s">
+        <v>768</v>
+      </c>
       <c r="P187" t="s">
         <v>14</v>
       </c>
@@ -10833,8 +11573,12 @@
       <c r="M188" t="s">
         <v>21</v>
       </c>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
+      <c r="N188" t="s">
+        <v>768</v>
+      </c>
+      <c r="O188" t="s">
+        <v>768</v>
+      </c>
       <c r="P188" t="s">
         <v>14</v>
       </c>
@@ -10876,8 +11620,12 @@
       <c r="M189" t="s">
         <v>21</v>
       </c>
-      <c r="N189" s="3"/>
-      <c r="O189" s="3"/>
+      <c r="N189" t="s">
+        <v>768</v>
+      </c>
+      <c r="O189" t="s">
+        <v>768</v>
+      </c>
       <c r="P189" t="s">
         <v>14</v>
       </c>
@@ -10919,8 +11667,12 @@
       <c r="M190" t="s">
         <v>21</v>
       </c>
-      <c r="N190" s="3"/>
-      <c r="O190" s="3"/>
+      <c r="N190" t="s">
+        <v>768</v>
+      </c>
+      <c r="O190" t="s">
+        <v>768</v>
+      </c>
       <c r="P190" t="s">
         <v>14</v>
       </c>
@@ -10962,8 +11714,12 @@
       <c r="M191" t="s">
         <v>21</v>
       </c>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
+      <c r="N191" t="s">
+        <v>768</v>
+      </c>
+      <c r="O191" t="s">
+        <v>768</v>
+      </c>
       <c r="P191" t="s">
         <v>14</v>
       </c>
@@ -11005,8 +11761,12 @@
       <c r="M192" t="s">
         <v>21</v>
       </c>
-      <c r="N192" s="3"/>
-      <c r="O192" s="3"/>
+      <c r="N192" t="s">
+        <v>768</v>
+      </c>
+      <c r="O192" t="s">
+        <v>768</v>
+      </c>
       <c r="P192" t="s">
         <v>14</v>
       </c>
@@ -11048,8 +11808,12 @@
       <c r="M193" t="s">
         <v>21</v>
       </c>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
+      <c r="N193" t="s">
+        <v>768</v>
+      </c>
+      <c r="O193" t="s">
+        <v>768</v>
+      </c>
       <c r="P193" t="s">
         <v>14</v>
       </c>
@@ -11091,8 +11855,12 @@
       <c r="M194" t="s">
         <v>21</v>
       </c>
-      <c r="N194" s="3"/>
-      <c r="O194" s="3"/>
+      <c r="N194" t="s">
+        <v>768</v>
+      </c>
+      <c r="O194" t="s">
+        <v>768</v>
+      </c>
       <c r="P194" t="s">
         <v>14</v>
       </c>
@@ -11134,8 +11902,12 @@
       <c r="M195" t="s">
         <v>21</v>
       </c>
-      <c r="N195" s="3"/>
-      <c r="O195" s="3"/>
+      <c r="N195" t="s">
+        <v>768</v>
+      </c>
+      <c r="O195" t="s">
+        <v>768</v>
+      </c>
       <c r="P195" t="s">
         <v>14</v>
       </c>
@@ -11177,8 +11949,12 @@
       <c r="M196" t="s">
         <v>21</v>
       </c>
-      <c r="N196" s="3"/>
-      <c r="O196" s="3"/>
+      <c r="N196" t="s">
+        <v>768</v>
+      </c>
+      <c r="O196" t="s">
+        <v>768</v>
+      </c>
       <c r="P196" t="s">
         <v>14</v>
       </c>
@@ -11220,8 +11996,12 @@
       <c r="M197" t="s">
         <v>21</v>
       </c>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
+      <c r="N197" t="s">
+        <v>768</v>
+      </c>
+      <c r="O197" t="s">
+        <v>768</v>
+      </c>
       <c r="P197" t="s">
         <v>14</v>
       </c>
@@ -11263,8 +12043,12 @@
       <c r="M198" t="s">
         <v>21</v>
       </c>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
+      <c r="N198" t="s">
+        <v>768</v>
+      </c>
+      <c r="O198" t="s">
+        <v>768</v>
+      </c>
       <c r="P198" t="s">
         <v>14</v>
       </c>
@@ -11306,8 +12090,12 @@
       <c r="M199" t="s">
         <v>21</v>
       </c>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
+      <c r="N199" t="s">
+        <v>768</v>
+      </c>
+      <c r="O199" t="s">
+        <v>768</v>
+      </c>
       <c r="P199" t="s">
         <v>14</v>
       </c>
@@ -11349,8 +12137,12 @@
       <c r="M200" t="s">
         <v>21</v>
       </c>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
+      <c r="N200" t="s">
+        <v>768</v>
+      </c>
+      <c r="O200" t="s">
+        <v>768</v>
+      </c>
       <c r="P200" t="s">
         <v>14</v>
       </c>
@@ -11392,8 +12184,12 @@
       <c r="M201" t="s">
         <v>21</v>
       </c>
-      <c r="N201" s="3"/>
-      <c r="O201" s="3"/>
+      <c r="N201" t="s">
+        <v>768</v>
+      </c>
+      <c r="O201" t="s">
+        <v>768</v>
+      </c>
       <c r="P201" t="s">
         <v>14</v>
       </c>
@@ -11435,8 +12231,12 @@
       <c r="M202" t="s">
         <v>21</v>
       </c>
-      <c r="N202" s="3"/>
-      <c r="O202" s="3"/>
+      <c r="N202" t="s">
+        <v>768</v>
+      </c>
+      <c r="O202" t="s">
+        <v>768</v>
+      </c>
       <c r="P202" t="s">
         <v>14</v>
       </c>
@@ -11478,8 +12278,12 @@
       <c r="M203" t="s">
         <v>21</v>
       </c>
-      <c r="N203" s="3"/>
-      <c r="O203" s="3"/>
+      <c r="N203" t="s">
+        <v>768</v>
+      </c>
+      <c r="O203" t="s">
+        <v>768</v>
+      </c>
       <c r="P203" t="s">
         <v>14</v>
       </c>
@@ -11521,8 +12325,12 @@
       <c r="M204" t="s">
         <v>21</v>
       </c>
-      <c r="N204" s="3"/>
-      <c r="O204" s="3"/>
+      <c r="N204" t="s">
+        <v>768</v>
+      </c>
+      <c r="O204" t="s">
+        <v>768</v>
+      </c>
       <c r="P204" t="s">
         <v>14</v>
       </c>
@@ -11564,8 +12372,12 @@
       <c r="M205" t="s">
         <v>21</v>
       </c>
-      <c r="N205" s="3"/>
-      <c r="O205" s="3"/>
+      <c r="N205" t="s">
+        <v>768</v>
+      </c>
+      <c r="O205" t="s">
+        <v>768</v>
+      </c>
       <c r="P205" t="s">
         <v>14</v>
       </c>
@@ -11607,8 +12419,12 @@
       <c r="M206" t="s">
         <v>21</v>
       </c>
-      <c r="N206" s="3"/>
-      <c r="O206" s="3"/>
+      <c r="N206" t="s">
+        <v>768</v>
+      </c>
+      <c r="O206" t="s">
+        <v>768</v>
+      </c>
       <c r="P206" t="s">
         <v>14</v>
       </c>
@@ -11650,8 +12466,12 @@
       <c r="M207" t="s">
         <v>21</v>
       </c>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3"/>
+      <c r="N207" t="s">
+        <v>768</v>
+      </c>
+      <c r="O207" t="s">
+        <v>768</v>
+      </c>
       <c r="P207" t="s">
         <v>14</v>
       </c>
@@ -11693,8 +12513,12 @@
       <c r="M208" t="s">
         <v>21</v>
       </c>
-      <c r="N208" s="3"/>
-      <c r="O208" s="3"/>
+      <c r="N208" t="s">
+        <v>768</v>
+      </c>
+      <c r="O208" t="s">
+        <v>768</v>
+      </c>
       <c r="P208" t="s">
         <v>14</v>
       </c>
@@ -11736,8 +12560,12 @@
       <c r="M209" t="s">
         <v>21</v>
       </c>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
+      <c r="N209" t="s">
+        <v>768</v>
+      </c>
+      <c r="O209" t="s">
+        <v>768</v>
+      </c>
       <c r="P209" t="s">
         <v>14</v>
       </c>
@@ -11779,8 +12607,12 @@
       <c r="M210" t="s">
         <v>21</v>
       </c>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
+      <c r="N210" t="s">
+        <v>768</v>
+      </c>
+      <c r="O210" t="s">
+        <v>768</v>
+      </c>
       <c r="P210" t="s">
         <v>14</v>
       </c>
@@ -11822,8 +12654,12 @@
       <c r="M211" t="s">
         <v>21</v>
       </c>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
+      <c r="N211" t="s">
+        <v>768</v>
+      </c>
+      <c r="O211" t="s">
+        <v>768</v>
+      </c>
       <c r="P211" t="s">
         <v>14</v>
       </c>
@@ -11865,8 +12701,12 @@
       <c r="M212" t="s">
         <v>21</v>
       </c>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
+      <c r="N212" t="s">
+        <v>768</v>
+      </c>
+      <c r="O212" t="s">
+        <v>768</v>
+      </c>
       <c r="P212" t="s">
         <v>14</v>
       </c>
@@ -11908,8 +12748,12 @@
       <c r="M213" t="s">
         <v>21</v>
       </c>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
+      <c r="N213" t="s">
+        <v>768</v>
+      </c>
+      <c r="O213" t="s">
+        <v>768</v>
+      </c>
       <c r="P213" t="s">
         <v>14</v>
       </c>
@@ -11951,8 +12795,12 @@
       <c r="M214" t="s">
         <v>21</v>
       </c>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
+      <c r="N214" t="s">
+        <v>768</v>
+      </c>
+      <c r="O214" t="s">
+        <v>768</v>
+      </c>
       <c r="P214" t="s">
         <v>14</v>
       </c>
@@ -11994,8 +12842,12 @@
       <c r="M215" t="s">
         <v>21</v>
       </c>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
+      <c r="N215" t="s">
+        <v>768</v>
+      </c>
+      <c r="O215" t="s">
+        <v>768</v>
+      </c>
       <c r="P215" t="s">
         <v>14</v>
       </c>
@@ -12037,8 +12889,12 @@
       <c r="M216" t="s">
         <v>21</v>
       </c>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
+      <c r="N216" t="s">
+        <v>768</v>
+      </c>
+      <c r="O216" t="s">
+        <v>768</v>
+      </c>
       <c r="P216" t="s">
         <v>14</v>
       </c>
@@ -12080,8 +12936,12 @@
       <c r="M217" t="s">
         <v>21</v>
       </c>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
+      <c r="N217" t="s">
+        <v>768</v>
+      </c>
+      <c r="O217" t="s">
+        <v>768</v>
+      </c>
       <c r="P217" t="s">
         <v>14</v>
       </c>
@@ -12123,8 +12983,12 @@
       <c r="M218" t="s">
         <v>21</v>
       </c>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
+      <c r="N218" t="s">
+        <v>768</v>
+      </c>
+      <c r="O218" t="s">
+        <v>768</v>
+      </c>
       <c r="P218" t="s">
         <v>14</v>
       </c>
@@ -12166,8 +13030,12 @@
       <c r="M219" t="s">
         <v>21</v>
       </c>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
+      <c r="N219" t="s">
+        <v>768</v>
+      </c>
+      <c r="O219" t="s">
+        <v>768</v>
+      </c>
       <c r="P219" t="s">
         <v>14</v>
       </c>
@@ -12209,8 +13077,12 @@
       <c r="M220" t="s">
         <v>21</v>
       </c>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
+      <c r="N220" t="s">
+        <v>768</v>
+      </c>
+      <c r="O220" t="s">
+        <v>768</v>
+      </c>
       <c r="P220" t="s">
         <v>14</v>
       </c>
@@ -12252,8 +13124,12 @@
       <c r="M221" t="s">
         <v>21</v>
       </c>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
+      <c r="N221" t="s">
+        <v>768</v>
+      </c>
+      <c r="O221" t="s">
+        <v>768</v>
+      </c>
       <c r="P221" t="s">
         <v>14</v>
       </c>
@@ -12295,8 +13171,12 @@
       <c r="M222" t="s">
         <v>21</v>
       </c>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
+      <c r="N222" t="s">
+        <v>768</v>
+      </c>
+      <c r="O222" t="s">
+        <v>768</v>
+      </c>
       <c r="P222" t="s">
         <v>14</v>
       </c>
@@ -12338,8 +13218,12 @@
       <c r="M223" t="s">
         <v>21</v>
       </c>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
+      <c r="N223" t="s">
+        <v>768</v>
+      </c>
+      <c r="O223" t="s">
+        <v>768</v>
+      </c>
       <c r="P223" t="s">
         <v>14</v>
       </c>
@@ -12381,8 +13265,12 @@
       <c r="M224" t="s">
         <v>21</v>
       </c>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
+      <c r="N224" t="s">
+        <v>768</v>
+      </c>
+      <c r="O224" t="s">
+        <v>768</v>
+      </c>
       <c r="P224" t="s">
         <v>14</v>
       </c>
@@ -12424,8 +13312,12 @@
       <c r="M225" t="s">
         <v>21</v>
       </c>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
+      <c r="N225" t="s">
+        <v>768</v>
+      </c>
+      <c r="O225" t="s">
+        <v>768</v>
+      </c>
       <c r="P225" t="s">
         <v>14</v>
       </c>
@@ -12467,8 +13359,12 @@
       <c r="M226" t="s">
         <v>21</v>
       </c>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
+      <c r="N226" t="s">
+        <v>768</v>
+      </c>
+      <c r="O226" t="s">
+        <v>768</v>
+      </c>
       <c r="P226" t="s">
         <v>14</v>
       </c>
@@ -12510,8 +13406,12 @@
       <c r="M227" t="s">
         <v>21</v>
       </c>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
+      <c r="N227" t="s">
+        <v>768</v>
+      </c>
+      <c r="O227" t="s">
+        <v>768</v>
+      </c>
       <c r="P227" t="s">
         <v>14</v>
       </c>
@@ -12553,8 +13453,12 @@
       <c r="M228" t="s">
         <v>21</v>
       </c>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
+      <c r="N228" t="s">
+        <v>768</v>
+      </c>
+      <c r="O228" t="s">
+        <v>768</v>
+      </c>
       <c r="P228" t="s">
         <v>14</v>
       </c>
@@ -12596,8 +13500,12 @@
       <c r="M229" t="s">
         <v>21</v>
       </c>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
+      <c r="N229" t="s">
+        <v>768</v>
+      </c>
+      <c r="O229" t="s">
+        <v>768</v>
+      </c>
       <c r="P229" t="s">
         <v>14</v>
       </c>
@@ -12639,8 +13547,12 @@
       <c r="M230" t="s">
         <v>21</v>
       </c>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
+      <c r="N230" t="s">
+        <v>768</v>
+      </c>
+      <c r="O230" t="s">
+        <v>768</v>
+      </c>
       <c r="P230" t="s">
         <v>14</v>
       </c>
@@ -12682,8 +13594,12 @@
       <c r="M231" t="s">
         <v>21</v>
       </c>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
+      <c r="N231" t="s">
+        <v>768</v>
+      </c>
+      <c r="O231" t="s">
+        <v>768</v>
+      </c>
       <c r="P231" t="s">
         <v>14</v>
       </c>
@@ -12725,8 +13641,12 @@
       <c r="M232" t="s">
         <v>21</v>
       </c>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
+      <c r="N232" t="s">
+        <v>768</v>
+      </c>
+      <c r="O232" t="s">
+        <v>768</v>
+      </c>
       <c r="P232" t="s">
         <v>14</v>
       </c>
@@ -12768,8 +13688,12 @@
       <c r="M233" t="s">
         <v>21</v>
       </c>
-      <c r="N233" s="3"/>
-      <c r="O233" s="3"/>
+      <c r="N233" t="s">
+        <v>768</v>
+      </c>
+      <c r="O233" t="s">
+        <v>768</v>
+      </c>
       <c r="P233" t="s">
         <v>14</v>
       </c>
@@ -12811,8 +13735,12 @@
       <c r="M234" t="s">
         <v>21</v>
       </c>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
+      <c r="N234" t="s">
+        <v>768</v>
+      </c>
+      <c r="O234" t="s">
+        <v>768</v>
+      </c>
       <c r="P234" t="s">
         <v>14</v>
       </c>
@@ -12854,8 +13782,12 @@
       <c r="M235" t="s">
         <v>21</v>
       </c>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
+      <c r="N235" t="s">
+        <v>768</v>
+      </c>
+      <c r="O235" t="s">
+        <v>768</v>
+      </c>
       <c r="P235" t="s">
         <v>14</v>
       </c>
@@ -12897,8 +13829,12 @@
       <c r="M236" t="s">
         <v>21</v>
       </c>
-      <c r="N236" s="3"/>
-      <c r="O236" s="3"/>
+      <c r="N236" t="s">
+        <v>768</v>
+      </c>
+      <c r="O236" t="s">
+        <v>768</v>
+      </c>
       <c r="P236" t="s">
         <v>14</v>
       </c>
@@ -12940,8 +13876,12 @@
       <c r="M237" t="s">
         <v>21</v>
       </c>
-      <c r="N237" s="3"/>
-      <c r="O237" s="3"/>
+      <c r="N237" t="s">
+        <v>768</v>
+      </c>
+      <c r="O237" t="s">
+        <v>768</v>
+      </c>
       <c r="P237" t="s">
         <v>14</v>
       </c>
@@ -12983,8 +13923,12 @@
       <c r="M238" t="s">
         <v>21</v>
       </c>
-      <c r="N238" s="3"/>
-      <c r="O238" s="3"/>
+      <c r="N238" t="s">
+        <v>768</v>
+      </c>
+      <c r="O238" t="s">
+        <v>768</v>
+      </c>
       <c r="P238" t="s">
         <v>14</v>
       </c>
@@ -13026,8 +13970,12 @@
       <c r="M239" t="s">
         <v>21</v>
       </c>
-      <c r="N239" s="3"/>
-      <c r="O239" s="3"/>
+      <c r="N239" t="s">
+        <v>768</v>
+      </c>
+      <c r="O239" t="s">
+        <v>768</v>
+      </c>
       <c r="P239" t="s">
         <v>14</v>
       </c>
@@ -13069,8 +14017,12 @@
       <c r="M240" t="s">
         <v>21</v>
       </c>
-      <c r="N240" s="3"/>
-      <c r="O240" s="3"/>
+      <c r="N240" t="s">
+        <v>768</v>
+      </c>
+      <c r="O240" t="s">
+        <v>768</v>
+      </c>
       <c r="P240" t="s">
         <v>14</v>
       </c>
@@ -13112,8 +14064,12 @@
       <c r="M241" t="s">
         <v>21</v>
       </c>
-      <c r="N241" s="3"/>
-      <c r="O241" s="3"/>
+      <c r="N241" t="s">
+        <v>768</v>
+      </c>
+      <c r="O241" t="s">
+        <v>768</v>
+      </c>
       <c r="P241" t="s">
         <v>14</v>
       </c>
